--- a/Course_ID.xlsx
+++ b/Course_ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gulfuniversityst-my.sharepoint.com/personal/ewes_a_gust_edu_kw/Documents/AAS_Model/ML_Models/Eligible_Approach/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gulfuniversityst-my.sharepoint.com/personal/ewes_a_gust_edu_kw/Documents/AAS_Model/ML_Models/Eligible_Approach/Auto_Advising_System_Web_App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048F621DC70945ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F862A399-7644-4A36-AAAE-3057446B2BD5}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC1048F621DC70945ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35B4645-03E8-457B-B382-E7D44C003C8E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="870" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t>Course_ID</t>
   </si>
@@ -1564,6 +1564,24 @@
   </si>
   <si>
     <t>CSC499</t>
+  </si>
+  <si>
+    <t>MATH094</t>
+  </si>
+  <si>
+    <t>MATH095</t>
+  </si>
+  <si>
+    <t>MATH096</t>
+  </si>
+  <si>
+    <t>MATH098</t>
+  </si>
+  <si>
+    <t>ENGL097</t>
+  </si>
+  <si>
+    <t>ENGL098</t>
   </si>
 </sst>
 </file>
@@ -1881,9 +1899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A513"/>
+  <dimension ref="A1:A519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="A520" sqref="A520"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4452,6 +4472,36 @@
         <v>512</v>
       </c>
     </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course_ID.xlsx
+++ b/Course_ID.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gulfuniversityst-my.sharepoint.com/personal/ewes_a_gust_edu_kw/Documents/AAS_Model/ML_Models/Eligible_Approach/Auto_Advising_System_Web_App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC1048F621DC70945ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35B4645-03E8-457B-B382-E7D44C003C8E}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC1048F621DC70945ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD004137-3D55-456B-871F-0F14ADD0DAB0}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="870" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t>Course_ID</t>
   </si>
@@ -1582,6 +1593,15 @@
   </si>
   <si>
     <t>ENGL098</t>
+  </si>
+  <si>
+    <t>ELEN313</t>
+  </si>
+  <si>
+    <t>ELEN313L</t>
+  </si>
+  <si>
+    <t>ELEN370</t>
   </si>
 </sst>
 </file>
@@ -1899,13 +1919,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A519"/>
+  <dimension ref="A1:A522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="A520" sqref="A520"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -4502,6 +4526,21 @@
         <v>518</v>
       </c>
     </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
